--- a/config/pipesar3s/timing_table_1.xlsx
+++ b/config/pipesar3s/timing_table_1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{008E09DF-33AF-418F-BD70-6BAA66F0DA6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9137D55A-D487-4112-9F19-6BE81E232173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8290" yWindow="570" windowWidth="16270" windowHeight="7320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
   <si>
     <t>MSB</t>
   </si>
@@ -61,6 +61,19 @@
   </si>
   <si>
     <t>AMP1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CB4</t>
+  </si>
+  <si>
+    <t>CB5</t>
+  </si>
+  <si>
+    <t>CB6</t>
+  </si>
+  <si>
+    <t>EMPTY</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -409,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -487,6 +500,51 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
